--- a/biology/Médecine/Danielangela_Sorti/Danielangela_Sorti.xlsx
+++ b/biology/Médecine/Danielangela_Sorti/Danielangela_Sorti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Danielangela Sorti, en religion sœur Anna Maria, née le 15 juin 1947 à Bergame en Italie, morte le 11 mai 1995 à Kikwit en République démocratique du Congo, est une religieuse et infirmière italienne.
 « Martyre de la charité » en contractant la maladie Ebola auprès de ceux qu'elle soignait, elle est reconnue vénérable par le pape François en 2021.
@@ -512,13 +524,15 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Danielangela Sorti naît le 15 juin 1947 à Bergame en Italie ; elle est la plus jeune d'une famille de treize enfants[1],[2]. Elle a huit ans quand son père meurt en 1955 ; sa mère meurt l'année suivante ; un de ses frères meurt d'un accident en 1958[2]. Elle s'occupe de la gestion de la maison et commence tôt à travailler[2].
-Fervente chrétienne, très active dans sa paroisse, elle ressent la vocation religieuse à dix-huit ans, en 1965. Elle est mineure, la famille n'accepte pas sa décision ; l'affaire est portée devant le tribunal, qui reconnaît sa maturité[2]. Elle entre au couvent des Sœurs des pauvres de Bergame en mars 1966. Sœur Anna Maria y prononce ses vœux temporaires le 26 septembre 1968[2].
-Elle termine à Milan ses études d'infirmière, et est diplômée infirmière chef en 1970[2].
-Selon son désir d'être missionnaire, elle est envoyé en République démocratique du Congo en 1978[2]. Après quelques années à Mosango, elle exerce comme infirmière à Kikimi près de Kinshasa de 1983 à 1991. Elle travaille ensuite à Tumikia à partir de 1991 et y propose son aide à Floralba Rondi pour lutter avec elle contre une épidémie en cours, sans savoir encore que c'est l'épidémie Ebola[2],[3].
-Elle y attrape le virus et en meurt le 11 mai 1995[2] à Kikwit, quelques jours après que la communauté s'est rendu compte qu'il s'agit de la maladie à virus Ebola[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Danielangela Sorti naît le 15 juin 1947 à Bergame en Italie ; elle est la plus jeune d'une famille de treize enfants,. Elle a huit ans quand son père meurt en 1955 ; sa mère meurt l'année suivante ; un de ses frères meurt d'un accident en 1958. Elle s'occupe de la gestion de la maison et commence tôt à travailler.
+Fervente chrétienne, très active dans sa paroisse, elle ressent la vocation religieuse à dix-huit ans, en 1965. Elle est mineure, la famille n'accepte pas sa décision ; l'affaire est portée devant le tribunal, qui reconnaît sa maturité. Elle entre au couvent des Sœurs des pauvres de Bergame en mars 1966. Sœur Anna Maria y prononce ses vœux temporaires le 26 septembre 1968.
+Elle termine à Milan ses études d'infirmière, et est diplômée infirmière chef en 1970.
+Selon son désir d'être missionnaire, elle est envoyé en République démocratique du Congo en 1978. Après quelques années à Mosango, elle exerce comme infirmière à Kikimi près de Kinshasa de 1983 à 1991. Elle travaille ensuite à Tumikia à partir de 1991 et y propose son aide à Floralba Rondi pour lutter avec elle contre une épidémie en cours, sans savoir encore que c'est l'épidémie Ebola,.
+Elle y attrape le virus et en meurt le 11 mai 1995 à Kikwit, quelques jours après que la communauté s'est rendu compte qu'il s'agit de la maladie à virus Ebola.
 </t>
         </is>
       </c>
@@ -547,11 +561,13 @@
           <t>Procédure en béatification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La procédure pour la béatification éventuelle de Danielangela Sorti (sœur Anna Maria) est ouverte en 2013 au niveau du diocèse de Kikwit et reçoit la même année l'avis du Saint-Siège indiquant que rien ne s'oppose à cette enquête. Une autre enquête diocésaine est ouverte dans le diocèse de Bergame. Les enquêtes diocésaines sont closes en 2014. Le dossier est transmis à Rome auprès de la Congrégation pour les causes des saints[1].
-La Positio sur ses vertus est terminée en mai 2018 et examinée en juin 2020 par la commission théologique[1].
-Le pape François approuve le 17 mars 2021 la reconnaissance de l'héroïcité de ses vertus et la reconnaît ainsi vénérable[1],[2],[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La procédure pour la béatification éventuelle de Danielangela Sorti (sœur Anna Maria) est ouverte en 2013 au niveau du diocèse de Kikwit et reçoit la même année l'avis du Saint-Siège indiquant que rien ne s'oppose à cette enquête. Une autre enquête diocésaine est ouverte dans le diocèse de Bergame. Les enquêtes diocésaines sont closes en 2014. Le dossier est transmis à Rome auprès de la Congrégation pour les causes des saints.
+La Positio sur ses vertus est terminée en mai 2018 et examinée en juin 2020 par la commission théologique.
+Le pape François approuve le 17 mars 2021 la reconnaissance de l'héroïcité de ses vertus et la reconnaît ainsi vénérable.
 </t>
         </is>
       </c>
